--- a/Ver2/Notion data/Lũy kế tháng HỆ THỐNG.xlsx
+++ b/Ver2/Notion data/Lũy kế tháng HỆ THỐNG.xlsx
@@ -1633,7 +1633,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>23800000</v>
+        <v>56300000</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         </is>
       </c>
       <c r="W7" t="n">
-        <v>267206000</v>
+        <v>267881000</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="AA7" t="n">
-        <v>263962000</v>
+        <v>256587000</v>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="AE7" t="n">
-        <v>531168000</v>
+        <v>524468000</v>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
@@ -1758,7 +1758,7 @@
         </is>
       </c>
       <c r="AH7" t="n">
-        <v>456668000</v>
+        <v>449968000</v>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="AK7" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="AQ7" t="n">
-        <v>480468000</v>
+        <v>506268000</v>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>74600000</v>
+        <v>118600000</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="AA8" t="n">
-        <v>792973000</v>
+        <v>748973000</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         </is>
       </c>
       <c r="AE8" t="n">
-        <v>1124200000</v>
+        <v>1080200000</v>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         </is>
       </c>
       <c r="AH8" t="n">
-        <v>975300000</v>
+        <v>931300000</v>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>42500000</v>
+        <v>133786000</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         </is>
       </c>
       <c r="AA9" t="n">
-        <v>498395000</v>
+        <v>407109000</v>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         </is>
       </c>
       <c r="AE9" t="n">
-        <v>530972000</v>
+        <v>439686000</v>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         </is>
       </c>
       <c r="AH9" t="n">
-        <v>459586000</v>
+        <v>368300000</v>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>83400000</v>
+        <v>232400000</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="AA10" t="n">
-        <v>491764000</v>
+        <v>342764000</v>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         </is>
       </c>
       <c r="AE10" t="n">
-        <v>991750000</v>
+        <v>842750000</v>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         </is>
       </c>
       <c r="AH10" t="n">
-        <v>932350000</v>
+        <v>783350000</v>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>81200000</v>
+        <v>166100000</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="AA11" t="n">
-        <v>540543000</v>
+        <v>455643000</v>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         </is>
       </c>
       <c r="AE11" t="n">
-        <v>864350000</v>
+        <v>779450000</v>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         </is>
       </c>
       <c r="AH11" t="n">
-        <v>808850000</v>
+        <v>723950000</v>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>4498000</v>
+        <v>49498000</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="AA12" t="n">
-        <v>306993000</v>
+        <v>261993000</v>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         </is>
       </c>
       <c r="AE12" t="n">
-        <v>422795000</v>
+        <v>377795000</v>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         </is>
       </c>
       <c r="AH12" t="n">
-        <v>394795000</v>
+        <v>349795000</v>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
